--- a/OSEPIMARE_dataset.xlsx
+++ b/OSEPIMARE_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\OSPIEMARE Dashboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E0EEC1-5C8B-4A85-9C2B-FAC59EAE5788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E739D-290B-4F68-9104-9E2117BF54F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8BA9C94-6AAD-4B33-AEC0-7F192CB0F451}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8BA9C94-6AAD-4B33-AEC0-7F192CB0F451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14536" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15701" uniqueCount="40">
   <si>
     <t>Age</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>Spanish</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>Albanian</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Portugese</t>
   </si>
 </sst>
 </file>
@@ -368,7 +386,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -533,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A461C76-8CF2-413E-AFB2-2A462D348167}" name="Table1" displayName="Table1" ref="A1:F2907" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F2907" xr:uid="{5A461C76-8CF2-413E-AFB2-2A462D348167}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A461C76-8CF2-413E-AFB2-2A462D348167}" name="Table1" displayName="Table1" ref="A1:F3140" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F3140" xr:uid="{5A461C76-8CF2-413E-AFB2-2A462D348167}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2F048670-7BF0-439F-8206-310060C23AF0}" name="Diagnosis" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{4A7A8F78-6F26-46D8-93AB-5409348FD298}" name="Age" dataDxfId="4"/>
@@ -548,7 +566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -844,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E025A668-5A84-46C9-AEED-D09B818073F5}">
-  <dimension ref="A1:F2907"/>
+  <dimension ref="A1:F3140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E280" sqref="E280"/>
+    <sheetView tabSelected="1" topLeftCell="A3125" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2908" sqref="A2908:F3140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58998,6 +59016,4666 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="2908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2908" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2908" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2908" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2908" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2908" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2908" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2909" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2909" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2909" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2909" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2909" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2909" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2910" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2910" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2910" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2910" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2910" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2910" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2911" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2911" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2911" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2911" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2911" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2911" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2912" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2912" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2912" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2912" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2912" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2912" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2913" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2913" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2913" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2913" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2913" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2913" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2914" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2914" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2914" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2914" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2914" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2914" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2915" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2915" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2915" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2915" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2915" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2915" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2916" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2916" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2916" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2916" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2916" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2916" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2917" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2917" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2917" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2917" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2917" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2917" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2918" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2918" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2918" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2918" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2918" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2918" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2919" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2919" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2919" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2919" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2919" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2919" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2920" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2920" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2920" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2920" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2920" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2920" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2921" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2921" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2921" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2921" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2921" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2921" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2922" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2922" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2922" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2922" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2922" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2922" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2923" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2923" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2923" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2923" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2923" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2923" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2924" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2924" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2924" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2924" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2924" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2924" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2925" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2925" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2925" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2925" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2925" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2925" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2926" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2926" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2926" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2926" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2926" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2926" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2927" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2927" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2927" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2927" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2927" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2927" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2928" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2928" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2928" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2928" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2928" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2928" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2929" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2929" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2929" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2929" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2929" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2929" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2930" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2930" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2930" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2930" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2930" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2930" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2931" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2931" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2931" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2931" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2931" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2931" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2932" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2932" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2932" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2932" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2932" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2932" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2933" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2933" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2933" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2933" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2933" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2933" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2934" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2934" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2934" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2934" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2934" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2934" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2935" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2935" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2935" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2935" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2935" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2935" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2936" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2936" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2936" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2936" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2936" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2936" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2937" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2937" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2937" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2937" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2937" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2937" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2938" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2938" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2938" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2938" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2938" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2938" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2939" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2939" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2939" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2939" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2939" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2939" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2940" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2940" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2940" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2940" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2940" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2940" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2941" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2941" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2941" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2941" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2941" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2941" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2942" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2942" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2942" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2942" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2942" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2942" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2943" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2943" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2943" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2943" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2943" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2943" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2944" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2944" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2944" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2944" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2944" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2944" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2945" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2945" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2945" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2945" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2945" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2945" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2946" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2946" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2946" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2946" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2946" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2946" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2947" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2947" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2947" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2947" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2947" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2947" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2948" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2948" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2948" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2948" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2948" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2948" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2949" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2949" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2949" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2949" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2949" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2949" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2950" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2950" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2950" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2950" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2950" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2950" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2951" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2951" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2951" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2951" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2951" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2951" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2952" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2952" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2952" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2952" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2952" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2952" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2953" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2953" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2953" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2953" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2953" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2953" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2954" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2954" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2954" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2954" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2954" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2954" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2955" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2955" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2955" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2955" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2955" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2955" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2956" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2956" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2956" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2956" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2956" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2956" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2957" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2957" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2957" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2957" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2957" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2957" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2958" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2958" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2958" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2958" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2958" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2958" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2959" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2959" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2959" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2959" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2959" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2959" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2960" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2960" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2960" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2960" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2960" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2960" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2961" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2961" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2961" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2961" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2961" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2961" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2962" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2962" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2962" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2962" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2962" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2962" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2963" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2963" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2963" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2963" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2963" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2963" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2964" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2964" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2964" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2964" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2964" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2964" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2965" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2965" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2965" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2965" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2965" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2965" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2966" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2966" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2966" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2966" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2966" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2966" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2967" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2967" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2967" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2967" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2967" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2967" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2968" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2968" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2968" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2968" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2968" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2968" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2969" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2969" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2969" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2969" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2969" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2969" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2970" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2970" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2970" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2970" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2970" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2970" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2971" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2971" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2971" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2971" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2971" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2971" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2972" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2972" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2972" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2972" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2972" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2972" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2973" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2973" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2973" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2973" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2973" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2973" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2974" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2974" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2974" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2974" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2974" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2974" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2975" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2975" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2975" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2975" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2975" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2975" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2976" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2976" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2976" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2976" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2976" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2976" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2977" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2977" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2977" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2977" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2977" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2977" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2978" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2978" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2978" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2978" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2978" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2978" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2979" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2979" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2979" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2979" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2979" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2979" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2980" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2980" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2980" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2980" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2980" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2980" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2981" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2981" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2981" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2981" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2981" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2981" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2982" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2982" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2982" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2982" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2982" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2982" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2983" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2983" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2983" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2983" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2983" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2983" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2984" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2984" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2984" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2984" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2984" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2984" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2985" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2985" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2985" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2985" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2985" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2985" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2986" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2986" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2986" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2986" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2986" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2986" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2987" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2987" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2987" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2987" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2987" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2987" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2988" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2988" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2988" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2988" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2988" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2988" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2989" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2989" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2989" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2989" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2989" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2989" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2990" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2990" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2990" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2990" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2990" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2990" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2991" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2991" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2991" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2991" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2991" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2991" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2992" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2992" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2992" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2992" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2992" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2992" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2993" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2993" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2993" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2993" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2993" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2993" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2994" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2994" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2994" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2994" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2994" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2994" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2995" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2995" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2995" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2995" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2995" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2995" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2996" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2996" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2996" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2996" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2996" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2996" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2997" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2997" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2997" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2997" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2997" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2997" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2998" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2998" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2998" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2998" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2998" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2998" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2999" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2999" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2999" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2999" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2999" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2999" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3000" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3000" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3000" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3000" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3000" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3000" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3001" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3001" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3001" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3001" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3001" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3001" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3002" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3002" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3002" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3002" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3002" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3002" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3003" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3003" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3003" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3003" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3003" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3003" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3004" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3004" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3004" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3004" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3004" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3004" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3005" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3005" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3005" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3005" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3005" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3005" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3006" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3006" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3006" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3006" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3006" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3006" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3007" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3007" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3007" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3007" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3007" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3007" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3008" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3008" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3008" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3008" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3008" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3008" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3009" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3009" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3009" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3009" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3009" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3009" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3010" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3010" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3010" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3010" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3010" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3010" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3011" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3011" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3011" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3011" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3011" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3011" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3012" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3012" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3012" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3012" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3012" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3012" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3013" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3013" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3013" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3013" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3013" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3013" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3014" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3014" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3014" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3014" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3014" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3014" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3015" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3015" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3015" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3015" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3015" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3015" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3016" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3016" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3016" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3016" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3016" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3016" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3017" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3017" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3017" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3017" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3017" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3017" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3018" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3018" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3018" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3018" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3018" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3018" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3019" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3019" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3019" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3019" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3019" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3019" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3020" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3020" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3020" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3020" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3020" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3020" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3021" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3021" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3021" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3021" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3021" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3021" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3022" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3022" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3022" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3022" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3022" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3022" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3023" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3023" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3023" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3023" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3023" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3023" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3024" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3024" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3024" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3024" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3024" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3024" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3025" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3025" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3025" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3025" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3025" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3025" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3026" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3026" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3026" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3026" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3026" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3026" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3027" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3027" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3027" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3027" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3027" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3027" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3028" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3028" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3028" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3028" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3028" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3028" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3029" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3029" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3029" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3029" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3029" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3029" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3030" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3030" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3030" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3030" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3030" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3030" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3031" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3031" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3031" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3031" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3031" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3031" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3032" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3032" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3032" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3032" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3032" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3032" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3033" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3033" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3033" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3033" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3033" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3033" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3034" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3034" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3034" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3034" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3034" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3034" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3035" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3035" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3035" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3035" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3035" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3035" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3036" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3036" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3036" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3036" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3036" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3036" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3037" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3037" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3037" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3037" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3037" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3037" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3038" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3038" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3038" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3038" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3038" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3038" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3039" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3039" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3039" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3039" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3039" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3039" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3040" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3040" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3040" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3040" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3040" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3040" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3041" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3041" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3041" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3041" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3041" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3041" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3042" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3042" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3042" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3042" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3042" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3042" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3043" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3043" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3043" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3043" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3043" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3043" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3044" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3044" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3044" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3044" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3044" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3044" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3045" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3045" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3045" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3045" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3045" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3045" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3046" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3046" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3046" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3046" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3046" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3046" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3047" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3047" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3047" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3047" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3047" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3047" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3048" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3048" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3048" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3048" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3048" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3048" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3049" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3049" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3049" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3049" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3049" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3049" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3050" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3050" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3050" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3050" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3050" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3050" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3051" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3051" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3051" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3051" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3051" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3051" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3052" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3052" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3052" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3052" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3052" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3052" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3053" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3053" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3053" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3053" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3053" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3053" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3054" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3054" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3054" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3054" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3054" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3054" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3055" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3055" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3055" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3055" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3055" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3055" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3056" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3056" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3056" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3056" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3056" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3056" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3057" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3057" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3057" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3057" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3057" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3057" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3058" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3058" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3058" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3058" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3058" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3058" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3059" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3059" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3059" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3059" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3059" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3059" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3060" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3060" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3060" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3060" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3060" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3060" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3061" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3061" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3061" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3061" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3061" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3061" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3062" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3062" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3062" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3062" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3062" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3062" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3063" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3063" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3063" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3063" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3063" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3063" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3064" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3064" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3064" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3064" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3064" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3064" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3065" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3065" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3065" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3065" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3065" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3065" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3066" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3066" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3066" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3066" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3066" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3066" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3067" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3067" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3067" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3067" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3067" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3067" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3068" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3068" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3068" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3068" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3068" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3068" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3069" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3069" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3069" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3069" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3069" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3069" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3070" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3070" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3070" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3070" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3070" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3070" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3071" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3071" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3071" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3071" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3071" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3071" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3072" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3072" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3072" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3072" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3072" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3072" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3073" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3073" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3073" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3073" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3073" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3073" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3074" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3074" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3074" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3074" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3074" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3074" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3075" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3075" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3075" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3075" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3075" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3075" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3076" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3076" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3076" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3076" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3076" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3076" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3077" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3077" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3077" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3077" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3077" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3077" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3078" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3078" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3078" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3078" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3078" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3078" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3079" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3079" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3079" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3079" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3079" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3079" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3080" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3080" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3080" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3080" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3080" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3080" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3081" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3081" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3081" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3081" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3081" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3081" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3082" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3082" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3082" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3082" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3082" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3082" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3083" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3083" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3083" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3083" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3083" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3083" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3084" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3084" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3084" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3084" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3084" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3084" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3085" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3085" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3085" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3085" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3085" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3085" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3086" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3086" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3086" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3086" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3086" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3086" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3087" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3087" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3087" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3087" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3087" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3087" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3088" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3088" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3088" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3088" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3088" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3088" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3089" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3089" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3089" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3089" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3089" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3089" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3090" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3090" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3090" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3090" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3090" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3090" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3091" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3091" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3091" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3091" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3091" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3091" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3092" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3092" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3092" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3092" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3092" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3092" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3093" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3093" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3093" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3093" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3093" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3093" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3094" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3094" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3094" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3094" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3094" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3094" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3095" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3095" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3095" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3095" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3095" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3095" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3096" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3096" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3096" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3096" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3096" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3096" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3097" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3097" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3097" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3097" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3097" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3097" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3098" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3098" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3098" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3098" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3098" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3098" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3099" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3099" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3099" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3099" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3099" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3099" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3100" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3100" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3100" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3101" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3101" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3101" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3102" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3102" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3103" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3103" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3103" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3104" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3104" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3104" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3105" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3105" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3106" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3106" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3106" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3107" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3107" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3108" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3108" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3108" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3109" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3109" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3110" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3110" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3110" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3111" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3111" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3112" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3112" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3112" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3112" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3113" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3113" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3114" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3114" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3114" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3115" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3115" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3116" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3116" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3116" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3117" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3117" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3118" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3118" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3119" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3119" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3119" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3120" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3120" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3120" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3121" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3121" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3122" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3122" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3123" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3123" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3124" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3124" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3125" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3125" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3125" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3126" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3126" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3126" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3127" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3127" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3128" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3128" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3129" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3129" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3129" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3129" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3130" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3130" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3130" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3131" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3131" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3132" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3132" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3133" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3133" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3133" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3133" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3134" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3134" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3135" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3135" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3135" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3135" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3136" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3136" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3136" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3137" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3137" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3137" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3138" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3138" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3138" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3138" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3139" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3139" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3139" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3140" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3140" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3140" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3140" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3140" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3140" s="14">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
